--- a/config_debug/fish_match_server.xlsx
+++ b/config_debug/fish_match_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="793" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="793" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="match_info" sheetId="2" r:id="rId1"/>
@@ -1663,7 +1663,7 @@
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6699,7 +6699,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9656,9 +9656,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9707,10 +9707,10 @@
         <v>10000</v>
       </c>
       <c r="B2" s="25">
-        <v>1589977800</v>
+        <v>1593608100</v>
       </c>
       <c r="C2" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
@@ -9733,10 +9733,10 @@
         <v>10001</v>
       </c>
       <c r="B3" s="25">
-        <v>1590150600</v>
+        <v>1594212900</v>
       </c>
       <c r="C3" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D3" s="8">
         <v>1</v>
@@ -9759,10 +9759,10 @@
         <v>10002</v>
       </c>
       <c r="B4" s="25">
-        <v>1590409800</v>
+        <v>1594817700</v>
       </c>
       <c r="C4" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
@@ -9785,10 +9785,10 @@
         <v>10003</v>
       </c>
       <c r="B5" s="25">
-        <v>1590582600</v>
+        <v>1595422500</v>
       </c>
       <c r="C5" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
@@ -9811,10 +9811,10 @@
         <v>10004</v>
       </c>
       <c r="B6" s="27">
-        <v>1590755400</v>
+        <v>1596027300</v>
       </c>
       <c r="C6" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
@@ -9837,10 +9837,10 @@
         <v>10005</v>
       </c>
       <c r="B7" s="27">
-        <v>1591014600</v>
+        <v>1596632100</v>
       </c>
       <c r="C7" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -9863,10 +9863,10 @@
         <v>10006</v>
       </c>
       <c r="B8" s="27">
-        <v>1591187400</v>
+        <v>1597236900</v>
       </c>
       <c r="C8" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
@@ -9889,10 +9889,10 @@
         <v>10007</v>
       </c>
       <c r="B9" s="27">
-        <v>1591360200</v>
+        <v>1597841700</v>
       </c>
       <c r="C9" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -9915,10 +9915,10 @@
         <v>10008</v>
       </c>
       <c r="B10" s="27">
-        <v>1591619400</v>
+        <v>1598446500</v>
       </c>
       <c r="C10" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -9941,10 +9941,10 @@
         <v>10009</v>
       </c>
       <c r="B11" s="27">
-        <v>1591792200</v>
+        <v>1599051300</v>
       </c>
       <c r="C11" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -9967,10 +9967,10 @@
         <v>10010</v>
       </c>
       <c r="B12">
-        <v>1591965000</v>
+        <v>1599656100</v>
       </c>
       <c r="C12" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -9993,10 +9993,10 @@
         <v>10011</v>
       </c>
       <c r="B13">
-        <v>1592224200</v>
+        <v>1600260900</v>
       </c>
       <c r="C13" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
@@ -10019,10 +10019,10 @@
         <v>10012</v>
       </c>
       <c r="B14">
-        <v>1592397000</v>
+        <v>1600865700</v>
       </c>
       <c r="C14" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D14" s="8">
         <v>1</v>
@@ -10045,10 +10045,10 @@
         <v>10013</v>
       </c>
       <c r="B15">
-        <v>1592569800</v>
+        <v>1601470500</v>
       </c>
       <c r="C15" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
@@ -10071,10 +10071,10 @@
         <v>10014</v>
       </c>
       <c r="B16">
-        <v>1592829000</v>
+        <v>1602075300</v>
       </c>
       <c r="C16" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
@@ -10097,10 +10097,10 @@
         <v>10015</v>
       </c>
       <c r="B17">
-        <v>1593001800</v>
+        <v>1602680100</v>
       </c>
       <c r="C17" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
@@ -10123,10 +10123,10 @@
         <v>10016</v>
       </c>
       <c r="B18">
-        <v>1593174600</v>
+        <v>1603284900</v>
       </c>
       <c r="C18" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
@@ -10149,10 +10149,10 @@
         <v>10017</v>
       </c>
       <c r="B19">
-        <v>1593433800</v>
+        <v>1603889700</v>
       </c>
       <c r="C19" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
@@ -10175,10 +10175,10 @@
         <v>10018</v>
       </c>
       <c r="B20">
-        <v>1593606600</v>
+        <v>1604494500</v>
       </c>
       <c r="C20" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
@@ -10201,10 +10201,10 @@
         <v>10019</v>
       </c>
       <c r="B21">
-        <v>1593779400</v>
+        <v>1605099300</v>
       </c>
       <c r="C21" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
@@ -10227,10 +10227,10 @@
         <v>10020</v>
       </c>
       <c r="B22">
-        <v>1594038600</v>
+        <v>1605704100</v>
       </c>
       <c r="C22" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
@@ -10253,10 +10253,10 @@
         <v>10021</v>
       </c>
       <c r="B23">
-        <v>1594211400</v>
+        <v>1606308900</v>
       </c>
       <c r="C23" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
@@ -10279,10 +10279,10 @@
         <v>10022</v>
       </c>
       <c r="B24">
-        <v>1594384200</v>
+        <v>1606913700</v>
       </c>
       <c r="C24" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
@@ -10305,10 +10305,10 @@
         <v>10023</v>
       </c>
       <c r="B25">
-        <v>1594643400</v>
+        <v>1607518500</v>
       </c>
       <c r="C25" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
@@ -10331,10 +10331,10 @@
         <v>10024</v>
       </c>
       <c r="B26">
-        <v>1594816200</v>
+        <v>1608123300</v>
       </c>
       <c r="C26" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
@@ -10357,10 +10357,10 @@
         <v>10025</v>
       </c>
       <c r="B27">
-        <v>1594989000</v>
+        <v>1608728100</v>
       </c>
       <c r="C27" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -10383,10 +10383,10 @@
         <v>10026</v>
       </c>
       <c r="B28">
-        <v>1595248200</v>
+        <v>1609332900</v>
       </c>
       <c r="C28" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -10409,10 +10409,10 @@
         <v>10027</v>
       </c>
       <c r="B29">
-        <v>1595421000</v>
+        <v>1609937700</v>
       </c>
       <c r="C29" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
@@ -10435,10 +10435,10 @@
         <v>10028</v>
       </c>
       <c r="B30">
-        <v>1595593800</v>
+        <v>1610542500</v>
       </c>
       <c r="C30" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
@@ -10461,10 +10461,10 @@
         <v>10029</v>
       </c>
       <c r="B31">
-        <v>1595853000</v>
+        <v>1611147300</v>
       </c>
       <c r="C31" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D31" s="8">
         <v>1</v>
@@ -10487,10 +10487,10 @@
         <v>10030</v>
       </c>
       <c r="B32">
-        <v>1596025800</v>
+        <v>1611752100</v>
       </c>
       <c r="C32" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D32" s="8">
         <v>1</v>
@@ -10513,10 +10513,10 @@
         <v>10031</v>
       </c>
       <c r="B33">
-        <v>1596198600</v>
+        <v>1612356900</v>
       </c>
       <c r="C33" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D33" s="8">
         <v>1</v>
@@ -10539,10 +10539,10 @@
         <v>10032</v>
       </c>
       <c r="B34">
-        <v>1596457800</v>
+        <v>1612961700</v>
       </c>
       <c r="C34" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D34" s="8">
         <v>1</v>
@@ -10565,10 +10565,10 @@
         <v>10033</v>
       </c>
       <c r="B35">
-        <v>1596630600</v>
+        <v>1613566500</v>
       </c>
       <c r="C35" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D35" s="8">
         <v>1</v>
@@ -10591,10 +10591,10 @@
         <v>10034</v>
       </c>
       <c r="B36">
-        <v>1596803400</v>
+        <v>1614171300</v>
       </c>
       <c r="C36" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D36" s="8">
         <v>1</v>
@@ -10617,10 +10617,10 @@
         <v>10035</v>
       </c>
       <c r="B37">
-        <v>1597062600</v>
+        <v>1614776100</v>
       </c>
       <c r="C37" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D37" s="8">
         <v>1</v>
@@ -10643,10 +10643,10 @@
         <v>10036</v>
       </c>
       <c r="B38">
-        <v>1597235400</v>
+        <v>1615380900</v>
       </c>
       <c r="C38" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D38" s="8">
         <v>1</v>
@@ -10669,10 +10669,10 @@
         <v>10037</v>
       </c>
       <c r="B39">
-        <v>1597408200</v>
+        <v>1615985700</v>
       </c>
       <c r="C39" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D39" s="8">
         <v>1</v>
@@ -10695,10 +10695,10 @@
         <v>10038</v>
       </c>
       <c r="B40">
-        <v>1597667400</v>
+        <v>1616590500</v>
       </c>
       <c r="C40" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D40" s="8">
         <v>1</v>
@@ -10721,10 +10721,10 @@
         <v>10039</v>
       </c>
       <c r="B41">
-        <v>1597840200</v>
+        <v>1617195300</v>
       </c>
       <c r="C41" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D41" s="8">
         <v>1</v>
@@ -10747,10 +10747,10 @@
         <v>10040</v>
       </c>
       <c r="B42">
-        <v>1598013000</v>
+        <v>1617800100</v>
       </c>
       <c r="C42" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D42" s="8">
         <v>1</v>
@@ -10773,10 +10773,10 @@
         <v>10041</v>
       </c>
       <c r="B43">
-        <v>1598272200</v>
+        <v>1618404900</v>
       </c>
       <c r="C43" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D43" s="8">
         <v>1</v>
@@ -10799,10 +10799,10 @@
         <v>10042</v>
       </c>
       <c r="B44">
-        <v>1598445000</v>
+        <v>1619009700</v>
       </c>
       <c r="C44" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D44" s="8">
         <v>1</v>
@@ -10825,10 +10825,10 @@
         <v>10043</v>
       </c>
       <c r="B45">
-        <v>1598617800</v>
+        <v>1619614500</v>
       </c>
       <c r="C45" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D45" s="8">
         <v>1</v>
@@ -10851,10 +10851,10 @@
         <v>10044</v>
       </c>
       <c r="B46">
-        <v>1598877000</v>
+        <v>1620219300</v>
       </c>
       <c r="C46" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D46" s="8">
         <v>1</v>
@@ -10877,10 +10877,10 @@
         <v>10045</v>
       </c>
       <c r="B47">
-        <v>1599049800</v>
+        <v>1620824100</v>
       </c>
       <c r="C47" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D47" s="8">
         <v>1</v>
@@ -10903,10 +10903,10 @@
         <v>10046</v>
       </c>
       <c r="B48">
-        <v>1599222600</v>
+        <v>1621428900</v>
       </c>
       <c r="C48" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D48" s="8">
         <v>1</v>
@@ -10929,10 +10929,10 @@
         <v>10047</v>
       </c>
       <c r="B49">
-        <v>1599481800</v>
+        <v>1622033700</v>
       </c>
       <c r="C49" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D49" s="8">
         <v>1</v>
@@ -10955,10 +10955,10 @@
         <v>10048</v>
       </c>
       <c r="B50">
-        <v>1599654600</v>
+        <v>1622638500</v>
       </c>
       <c r="C50" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D50" s="8">
         <v>1</v>
@@ -10981,10 +10981,10 @@
         <v>10049</v>
       </c>
       <c r="B51">
-        <v>1599827400</v>
+        <v>1623243300</v>
       </c>
       <c r="C51" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D51" s="8">
         <v>1</v>
@@ -11007,10 +11007,10 @@
         <v>10050</v>
       </c>
       <c r="B52" s="29">
-        <v>1600086600</v>
+        <v>1623848100</v>
       </c>
       <c r="C52" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D52" s="8">
         <v>1</v>
@@ -11033,10 +11033,10 @@
         <v>10051</v>
       </c>
       <c r="B53" s="29">
-        <v>1600259400</v>
+        <v>1624452900</v>
       </c>
       <c r="C53" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D53" s="8">
         <v>1</v>
@@ -11059,10 +11059,10 @@
         <v>10052</v>
       </c>
       <c r="B54" s="29">
-        <v>1600432200</v>
+        <v>1625057700</v>
       </c>
       <c r="C54" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D54" s="8">
         <v>1</v>
@@ -11085,10 +11085,10 @@
         <v>10053</v>
       </c>
       <c r="B55" s="29">
-        <v>1600691400</v>
+        <v>1625662500</v>
       </c>
       <c r="C55" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D55" s="8">
         <v>1</v>
@@ -11111,10 +11111,10 @@
         <v>10054</v>
       </c>
       <c r="B56" s="29">
-        <v>1600864200</v>
+        <v>1626267300</v>
       </c>
       <c r="C56" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D56" s="8">
         <v>1</v>
@@ -11137,10 +11137,10 @@
         <v>10055</v>
       </c>
       <c r="B57" s="29">
-        <v>1601037000</v>
+        <v>1626872100</v>
       </c>
       <c r="C57" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D57" s="8">
         <v>1</v>
@@ -11163,10 +11163,10 @@
         <v>10056</v>
       </c>
       <c r="B58" s="29">
-        <v>1601296200</v>
+        <v>1627476900</v>
       </c>
       <c r="C58" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D58" s="8">
         <v>1</v>
@@ -11189,10 +11189,10 @@
         <v>10057</v>
       </c>
       <c r="B59" s="29">
-        <v>1601469000</v>
+        <v>1628081700</v>
       </c>
       <c r="C59" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D59" s="8">
         <v>1</v>
@@ -11215,10 +11215,10 @@
         <v>10058</v>
       </c>
       <c r="B60" s="29">
-        <v>1601641800</v>
+        <v>1628686500</v>
       </c>
       <c r="C60" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D60" s="8">
         <v>1</v>
@@ -11241,10 +11241,10 @@
         <v>10059</v>
       </c>
       <c r="B61" s="29">
-        <v>1601901000</v>
+        <v>1629291300</v>
       </c>
       <c r="C61" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D61" s="8">
         <v>1</v>
@@ -11267,10 +11267,10 @@
         <v>10060</v>
       </c>
       <c r="B62" s="29">
-        <v>1602073800</v>
+        <v>1629896100</v>
       </c>
       <c r="C62" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D62" s="8">
         <v>1</v>
@@ -11293,10 +11293,10 @@
         <v>10061</v>
       </c>
       <c r="B63" s="29">
-        <v>1602246600</v>
+        <v>1630500900</v>
       </c>
       <c r="C63" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D63" s="8">
         <v>1</v>
@@ -11319,10 +11319,10 @@
         <v>10062</v>
       </c>
       <c r="B64" s="29">
-        <v>1602505800</v>
+        <v>1631105700</v>
       </c>
       <c r="C64" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D64" s="8">
         <v>1</v>
@@ -11345,10 +11345,10 @@
         <v>10063</v>
       </c>
       <c r="B65" s="29">
-        <v>1602678600</v>
+        <v>1631710500</v>
       </c>
       <c r="C65" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D65" s="8">
         <v>1</v>
@@ -11371,10 +11371,10 @@
         <v>10064</v>
       </c>
       <c r="B66" s="29">
-        <v>1602851400</v>
+        <v>1632315300</v>
       </c>
       <c r="C66" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D66" s="8">
         <v>1</v>
@@ -11397,10 +11397,10 @@
         <v>10065</v>
       </c>
       <c r="B67" s="29">
-        <v>1603110600</v>
+        <v>1632920100</v>
       </c>
       <c r="C67" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D67" s="8">
         <v>1</v>
@@ -11423,10 +11423,10 @@
         <v>10066</v>
       </c>
       <c r="B68" s="29">
-        <v>1603283400</v>
+        <v>1633524900</v>
       </c>
       <c r="C68" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D68" s="8">
         <v>1</v>
@@ -11449,10 +11449,10 @@
         <v>10067</v>
       </c>
       <c r="B69" s="29">
-        <v>1603456200</v>
+        <v>1634129700</v>
       </c>
       <c r="C69" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D69" s="8">
         <v>1</v>
@@ -11475,10 +11475,10 @@
         <v>10068</v>
       </c>
       <c r="B70" s="29">
-        <v>1603715400</v>
+        <v>1634734500</v>
       </c>
       <c r="C70" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D70" s="8">
         <v>1</v>
@@ -11501,10 +11501,10 @@
         <v>10069</v>
       </c>
       <c r="B71" s="29">
-        <v>1603888200</v>
+        <v>1635339300</v>
       </c>
       <c r="C71" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D71" s="8">
         <v>1</v>
@@ -11527,10 +11527,10 @@
         <v>10070</v>
       </c>
       <c r="B72" s="29">
-        <v>1604061000</v>
+        <v>1635944100</v>
       </c>
       <c r="C72" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D72" s="8">
         <v>1</v>
@@ -11553,10 +11553,10 @@
         <v>10071</v>
       </c>
       <c r="B73" s="29">
-        <v>1604320200</v>
+        <v>1636548900</v>
       </c>
       <c r="C73" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D73" s="8">
         <v>1</v>
@@ -11579,10 +11579,10 @@
         <v>10072</v>
       </c>
       <c r="B74" s="29">
-        <v>1604493000</v>
+        <v>1637153700</v>
       </c>
       <c r="C74" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D74" s="8">
         <v>1</v>
@@ -11605,10 +11605,10 @@
         <v>10073</v>
       </c>
       <c r="B75" s="29">
-        <v>1604665800</v>
+        <v>1637758500</v>
       </c>
       <c r="C75" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D75" s="8">
         <v>1</v>
@@ -11631,10 +11631,10 @@
         <v>10074</v>
       </c>
       <c r="B76" s="29">
-        <v>1604925000</v>
+        <v>1638363300</v>
       </c>
       <c r="C76" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D76" s="8">
         <v>1</v>
@@ -11657,10 +11657,10 @@
         <v>10075</v>
       </c>
       <c r="B77" s="29">
-        <v>1605097800</v>
+        <v>1638968100</v>
       </c>
       <c r="C77" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D77" s="8">
         <v>1</v>
@@ -11683,10 +11683,10 @@
         <v>10076</v>
       </c>
       <c r="B78" s="29">
-        <v>1605270600</v>
+        <v>1639572900</v>
       </c>
       <c r="C78" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D78" s="8">
         <v>1</v>
@@ -11709,10 +11709,10 @@
         <v>10077</v>
       </c>
       <c r="B79" s="25">
-        <v>1605529800</v>
+        <v>1640177700</v>
       </c>
       <c r="C79" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D79" s="8">
         <v>1</v>
@@ -11735,10 +11735,10 @@
         <v>10078</v>
       </c>
       <c r="B80" s="25">
-        <v>1605702600</v>
+        <v>1640782500</v>
       </c>
       <c r="C80" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D80" s="8">
         <v>1</v>
@@ -11761,10 +11761,10 @@
         <v>10079</v>
       </c>
       <c r="B81" s="25">
-        <v>1605875400</v>
+        <v>1641387300</v>
       </c>
       <c r="C81" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D81" s="8">
         <v>1</v>
@@ -11787,10 +11787,10 @@
         <v>10080</v>
       </c>
       <c r="B82" s="25">
-        <v>1606134600</v>
+        <v>1641992100</v>
       </c>
       <c r="C82" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D82" s="8">
         <v>1</v>
@@ -11813,10 +11813,10 @@
         <v>10081</v>
       </c>
       <c r="B83" s="27">
-        <v>1606307400</v>
+        <v>1642596900</v>
       </c>
       <c r="C83" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D83" s="8">
         <v>1</v>
@@ -11839,10 +11839,10 @@
         <v>10082</v>
       </c>
       <c r="B84" s="27">
-        <v>1606480200</v>
+        <v>1643201700</v>
       </c>
       <c r="C84" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D84" s="8">
         <v>1</v>
@@ -11865,10 +11865,10 @@
         <v>10083</v>
       </c>
       <c r="B85" s="27">
-        <v>1606739400</v>
+        <v>1643806500</v>
       </c>
       <c r="C85" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D85" s="8">
         <v>1</v>
@@ -11891,10 +11891,10 @@
         <v>10084</v>
       </c>
       <c r="B86" s="27">
-        <v>1606912200</v>
+        <v>1644411300</v>
       </c>
       <c r="C86" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D86" s="8">
         <v>1</v>
@@ -11917,10 +11917,10 @@
         <v>10085</v>
       </c>
       <c r="B87" s="27">
-        <v>1607085000</v>
+        <v>1645016100</v>
       </c>
       <c r="C87" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D87" s="8">
         <v>1</v>
@@ -11943,10 +11943,10 @@
         <v>10086</v>
       </c>
       <c r="B88" s="27">
-        <v>1607344200</v>
+        <v>1645620900</v>
       </c>
       <c r="C88" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D88" s="8">
         <v>1</v>
@@ -11969,10 +11969,10 @@
         <v>10087</v>
       </c>
       <c r="B89">
-        <v>1607517000</v>
+        <v>1646225700</v>
       </c>
       <c r="C89" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D89" s="8">
         <v>1</v>
@@ -11995,10 +11995,10 @@
         <v>10088</v>
       </c>
       <c r="B90">
-        <v>1607689800</v>
+        <v>1646830500</v>
       </c>
       <c r="C90" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D90" s="8">
         <v>1</v>
@@ -12021,10 +12021,10 @@
         <v>10089</v>
       </c>
       <c r="B91">
-        <v>1607949000</v>
+        <v>1647435300</v>
       </c>
       <c r="C91" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D91" s="8">
         <v>1</v>
@@ -12047,10 +12047,10 @@
         <v>10090</v>
       </c>
       <c r="B92">
-        <v>1608121800</v>
+        <v>1648040100</v>
       </c>
       <c r="C92" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D92" s="8">
         <v>1</v>
@@ -12073,10 +12073,10 @@
         <v>10091</v>
       </c>
       <c r="B93">
-        <v>1608294600</v>
+        <v>1648644900</v>
       </c>
       <c r="C93" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D93" s="8">
         <v>1</v>
@@ -12099,10 +12099,10 @@
         <v>10092</v>
       </c>
       <c r="B94">
-        <v>1608553800</v>
+        <v>1649249700</v>
       </c>
       <c r="C94" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D94" s="8">
         <v>1</v>
@@ -12125,10 +12125,10 @@
         <v>10093</v>
       </c>
       <c r="B95">
-        <v>1608726600</v>
+        <v>1649854500</v>
       </c>
       <c r="C95" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D95" s="8">
         <v>1</v>
@@ -12151,10 +12151,10 @@
         <v>10094</v>
       </c>
       <c r="B96">
-        <v>1608899400</v>
+        <v>1650459300</v>
       </c>
       <c r="C96" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D96" s="8">
         <v>1</v>
@@ -12177,10 +12177,10 @@
         <v>10095</v>
       </c>
       <c r="B97">
-        <v>1609158600</v>
+        <v>1651064100</v>
       </c>
       <c r="C97" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D97" s="8">
         <v>1</v>
@@ -12203,10 +12203,10 @@
         <v>10096</v>
       </c>
       <c r="B98">
-        <v>1609331400</v>
+        <v>1651668900</v>
       </c>
       <c r="C98" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D98" s="8">
         <v>1</v>
@@ -12229,10 +12229,10 @@
         <v>10097</v>
       </c>
       <c r="B99">
-        <v>1609504200</v>
+        <v>1652273700</v>
       </c>
       <c r="C99" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D99" s="8">
         <v>1</v>
@@ -12255,10 +12255,10 @@
         <v>10098</v>
       </c>
       <c r="B100">
-        <v>1609763400</v>
+        <v>1652878500</v>
       </c>
       <c r="C100" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D100" s="8">
         <v>1</v>
@@ -12281,10 +12281,10 @@
         <v>10099</v>
       </c>
       <c r="B101">
-        <v>1609935225.56391</v>
+        <v>1653483300</v>
       </c>
       <c r="C101" s="8">
-        <v>1800</v>
+        <v>300</v>
       </c>
       <c r="D101" s="8">
         <v>1</v>
@@ -13429,8 +13429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_debug/fish_match_server.xlsx
+++ b/config_debug/fish_match_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="793" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="793" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="match_info" sheetId="2" r:id="rId1"/>
@@ -109,7 +109,8 @@
           </rPr>
           <t>按周循环
 周几，开始报名时间，结束报名时间…
-（3个数据一组）</t>
+（3个数据一组）
+[0 - 6 = 星期天 - 星期六]</t>
         </r>
       </text>
     </comment>
@@ -3796,8 +3797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4348,9 +4349,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -4367,7 +4368,7 @@
     <col min="10" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="41.1" customHeight="1">
+    <row r="1" spans="1:9" ht="75.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>114</v>
       </c>

--- a/config_debug/fish_match_server.xlsx
+++ b/config_debug/fish_match_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="793" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="793"/>
   </bookViews>
   <sheets>
     <sheet name="match_info" sheetId="2" r:id="rId1"/>
@@ -751,19 +751,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>event_config</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>"2018-6-25",</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>event_config</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1373,9 +1373,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.25" style="4" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="4" bestFit="1" customWidth="1"/>
@@ -1392,7 +1394,7 @@
     <col min="16" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" customHeight="1">
+    <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>114</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="16.5">
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1452,7 +1454,7 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" ht="16.5">
+    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="1"/>
@@ -1465,7 +1467,7 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" ht="16.5">
+    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4"/>
       <c r="B4" s="3"/>
       <c r="C4" s="1"/>
@@ -1478,7 +1480,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" ht="16.5">
+    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="1"/>
@@ -1491,7 +1493,7 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="3"/>
       <c r="C6" s="1"/>
@@ -1502,7 +1504,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="1"/>
@@ -1513,7 +1515,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="3"/>
       <c r="C8" s="1"/>
@@ -1524,7 +1526,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" s="3"/>
       <c r="C9" s="1"/>
@@ -1535,7 +1537,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="3"/>
       <c r="C10" s="1"/>
@@ -1546,7 +1548,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" s="3"/>
       <c r="C11" s="1"/>
@@ -1557,7 +1559,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="3"/>
       <c r="C12" s="1"/>
@@ -1568,7 +1570,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="3"/>
       <c r="C13" s="1"/>
@@ -1579,7 +1581,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="3"/>
       <c r="C14" s="1"/>
@@ -1590,7 +1592,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
@@ -1601,7 +1603,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="3"/>
       <c r="C16" s="1"/>
@@ -1612,7 +1614,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" s="3"/>
       <c r="C17" s="1"/>
@@ -1623,7 +1625,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="3"/>
       <c r="C18" s="1"/>
@@ -1634,7 +1636,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
@@ -1645,7 +1647,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
@@ -1656,7 +1658,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
@@ -1667,7 +1669,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
@@ -1678,7 +1680,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
@@ -1689,7 +1691,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
@@ -1700,7 +1702,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
@@ -1711,7 +1713,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
@@ -1722,7 +1724,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
@@ -1733,7 +1735,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
@@ -1744,7 +1746,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
@@ -1755,7 +1757,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
@@ -1766,7 +1768,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
@@ -1777,7 +1779,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32" s="3"/>
       <c r="C32" s="1"/>
@@ -1788,7 +1790,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33" s="3"/>
       <c r="C33" s="1"/>
@@ -1799,7 +1801,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" s="3"/>
       <c r="C34" s="1"/>
@@ -1810,7 +1812,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35" s="3"/>
       <c r="C35" s="1"/>
@@ -1821,7 +1823,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36"/>
       <c r="B36" s="3"/>
       <c r="C36" s="1"/>
@@ -1832,7 +1834,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37" s="3"/>
       <c r="C37" s="1"/>
@@ -1843,7 +1845,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="3"/>
       <c r="C38" s="1"/>
@@ -1854,7 +1856,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="3"/>
       <c r="C39" s="1"/>
@@ -1865,7 +1867,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40"/>
       <c r="B40" s="3"/>
       <c r="C40" s="1"/>
@@ -1876,7 +1878,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41" s="3"/>
       <c r="C41" s="1"/>
@@ -1887,7 +1889,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42"/>
       <c r="B42" s="3"/>
       <c r="C42" s="1"/>
@@ -1898,7 +1900,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43" s="3"/>
       <c r="C43" s="1"/>
@@ -1909,7 +1911,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44"/>
       <c r="B44" s="3"/>
       <c r="C44" s="1"/>
@@ -1920,7 +1922,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45" s="3"/>
       <c r="C45" s="1"/>
@@ -1931,7 +1933,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46"/>
       <c r="B46" s="3"/>
       <c r="C46" s="1"/>
@@ -1942,7 +1944,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47" s="3"/>
       <c r="C47" s="1"/>
@@ -1953,7 +1955,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48"/>
       <c r="B48" s="3"/>
       <c r="C48" s="1"/>
@@ -1964,7 +1966,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49" s="3"/>
       <c r="C49" s="1"/>
@@ -1975,7 +1977,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50"/>
       <c r="B50" s="3"/>
       <c r="C50" s="1"/>
@@ -1986,7 +1988,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51" s="3"/>
       <c r="C51" s="1"/>
@@ -1997,7 +1999,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52"/>
       <c r="B52" s="3"/>
       <c r="C52" s="1"/>
@@ -2008,7 +2010,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53" s="28"/>
       <c r="C53" s="1"/>
@@ -2019,7 +2021,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54"/>
       <c r="B54" s="28"/>
       <c r="C54" s="1"/>
@@ -2030,7 +2032,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55"/>
       <c r="B55" s="28"/>
       <c r="C55" s="1"/>
@@ -2041,7 +2043,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56"/>
       <c r="B56" s="28"/>
       <c r="C56" s="1"/>
@@ -2052,7 +2054,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57"/>
       <c r="B57" s="28"/>
       <c r="C57" s="1"/>
@@ -2063,7 +2065,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58"/>
       <c r="B58" s="28"/>
       <c r="C58" s="1"/>
@@ -2074,7 +2076,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59"/>
       <c r="B59" s="28"/>
       <c r="C59" s="1"/>
@@ -2085,7 +2087,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60"/>
       <c r="B60" s="28"/>
       <c r="C60" s="1"/>
@@ -2096,7 +2098,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61" s="28"/>
       <c r="C61" s="1"/>
@@ -2107,7 +2109,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62"/>
       <c r="B62" s="28"/>
       <c r="C62" s="1"/>
@@ -2118,7 +2120,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63"/>
       <c r="B63" s="28"/>
       <c r="C63" s="1"/>
@@ -2129,7 +2131,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64"/>
       <c r="B64" s="28"/>
       <c r="C64" s="1"/>
@@ -2140,7 +2142,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65"/>
       <c r="B65" s="28"/>
       <c r="C65" s="1"/>
@@ -2151,7 +2153,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66"/>
       <c r="B66" s="28"/>
       <c r="C66" s="1"/>
@@ -2162,7 +2164,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67"/>
       <c r="B67" s="28"/>
       <c r="C67" s="1"/>
@@ -2173,7 +2175,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68" s="28"/>
       <c r="C68" s="1"/>
@@ -2184,7 +2186,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69"/>
       <c r="B69" s="28"/>
       <c r="C69" s="1"/>
@@ -2195,7 +2197,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70" s="28"/>
       <c r="C70" s="1"/>
@@ -2206,7 +2208,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71"/>
       <c r="B71" s="28"/>
       <c r="C71" s="1"/>
@@ -2217,7 +2219,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72" s="28"/>
       <c r="C72" s="1"/>
@@ -2228,7 +2230,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73" s="28"/>
       <c r="C73" s="1"/>
@@ -2239,7 +2241,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74" s="28"/>
       <c r="C74" s="1"/>
@@ -2250,7 +2252,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75"/>
       <c r="B75" s="28"/>
       <c r="C75" s="1"/>
@@ -2261,7 +2263,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76" s="28"/>
       <c r="C76" s="1"/>
@@ -2272,7 +2274,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77" s="28"/>
       <c r="C77" s="1"/>
@@ -2283,7 +2285,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78" s="28"/>
       <c r="C78" s="1"/>
@@ -2294,7 +2296,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79"/>
       <c r="B79" s="28"/>
       <c r="C79" s="1"/>
@@ -2305,7 +2307,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80" s="28"/>
       <c r="C80" s="1"/>
@@ -2316,7 +2318,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81"/>
       <c r="B81" s="28"/>
       <c r="C81" s="1"/>
@@ -2327,7 +2329,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82" s="28"/>
       <c r="C82" s="1"/>
@@ -2338,7 +2340,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83"/>
       <c r="B83" s="28"/>
       <c r="C83" s="1"/>
@@ -2349,7 +2351,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84" s="28"/>
       <c r="C84" s="1"/>
@@ -2360,7 +2362,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85"/>
       <c r="B85" s="28"/>
       <c r="C85" s="1"/>
@@ -2371,7 +2373,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86" s="28"/>
       <c r="C86" s="1"/>
@@ -2382,7 +2384,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87"/>
       <c r="B87" s="28"/>
       <c r="C87" s="1"/>
@@ -2393,7 +2395,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88" s="28"/>
       <c r="C88" s="1"/>
@@ -2404,7 +2406,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89"/>
       <c r="B89" s="28"/>
       <c r="C89" s="1"/>
@@ -2415,7 +2417,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90" s="28"/>
       <c r="C90" s="1"/>
@@ -2426,7 +2428,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91"/>
       <c r="B91" s="28"/>
       <c r="C91" s="1"/>
@@ -2437,7 +2439,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92" s="28"/>
       <c r="C92" s="1"/>
@@ -2448,7 +2450,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93"/>
       <c r="B93" s="28"/>
       <c r="C93" s="1"/>
@@ -2459,7 +2461,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94" s="28"/>
       <c r="C94" s="1"/>
@@ -2470,7 +2472,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95"/>
       <c r="B95" s="28"/>
       <c r="C95" s="1"/>
@@ -2481,7 +2483,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96" s="28"/>
       <c r="C96" s="1"/>
@@ -2492,7 +2494,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97"/>
       <c r="B97" s="28"/>
       <c r="C97" s="1"/>
@@ -2503,7 +2505,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98" s="28"/>
       <c r="C98" s="1"/>
@@ -2514,7 +2516,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99"/>
       <c r="B99" s="28"/>
       <c r="C99" s="1"/>
@@ -2525,7 +2527,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100" s="28"/>
       <c r="C100" s="1"/>
@@ -2536,7 +2538,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101"/>
       <c r="B101" s="28"/>
       <c r="C101" s="1"/>
@@ -2562,7 +2564,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
@@ -2571,7 +2573,7 @@
     <col min="5" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2585,7 +2587,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="20" customFormat="1">
+    <row r="2" spans="1:18" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -2613,7 +2615,7 @@
       <c r="Q2" s="8"/>
       <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:18" s="18" customFormat="1">
+    <row r="3" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2641,7 +2643,7 @@
       <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
     </row>
-    <row r="4" spans="1:18" s="18" customFormat="1">
+    <row r="4" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -2669,7 +2671,7 @@
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
     </row>
-    <row r="5" spans="1:18" s="18" customFormat="1">
+    <row r="5" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -2697,7 +2699,7 @@
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:18" s="18" customFormat="1">
+    <row r="6" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -2725,7 +2727,7 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:18" s="18" customFormat="1">
+    <row r="7" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -2753,7 +2755,7 @@
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
     </row>
-    <row r="8" spans="1:18" s="18" customFormat="1">
+    <row r="8" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -2781,7 +2783,7 @@
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:18" s="18" customFormat="1">
+    <row r="9" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -2809,7 +2811,7 @@
       <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
     </row>
-    <row r="10" spans="1:18" s="19" customFormat="1">
+    <row r="10" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -2837,7 +2839,7 @@
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="1:18" s="19" customFormat="1">
+    <row r="11" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -2865,7 +2867,7 @@
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:18" s="19" customFormat="1">
+    <row r="12" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -2893,7 +2895,7 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:18" s="19" customFormat="1">
+    <row r="13" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -2921,7 +2923,7 @@
       <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
     </row>
-    <row r="14" spans="1:18" s="19" customFormat="1">
+    <row r="14" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -2949,7 +2951,7 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="1:18" s="19" customFormat="1">
+    <row r="15" spans="1:18" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -2969,7 +2971,7 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
     </row>
-    <row r="16" spans="1:18" s="18" customFormat="1">
+    <row r="16" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -2989,7 +2991,7 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="1:18" s="18" customFormat="1">
+    <row r="17" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -3009,7 +3011,7 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" spans="1:18" s="18" customFormat="1">
+    <row r="18" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3029,7 +3031,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" s="18" customFormat="1">
+    <row r="19" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -3049,7 +3051,7 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" s="18" customFormat="1">
+    <row r="20" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -3069,7 +3071,7 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:18" s="18" customFormat="1">
+    <row r="21" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -3089,7 +3091,7 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="1:18" s="18" customFormat="1">
+    <row r="22" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -3109,7 +3111,7 @@
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" spans="1:18" s="18" customFormat="1">
+    <row r="23" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -3129,7 +3131,7 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" s="18" customFormat="1">
+    <row r="24" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -3149,7 +3151,7 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
     </row>
-    <row r="25" spans="1:18" s="18" customFormat="1">
+    <row r="25" spans="1:18" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -3169,488 +3171,488 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
     </row>
-    <row r="26" spans="1:18" s="10" customFormat="1"/>
-    <row r="27" spans="1:18" s="10" customFormat="1">
+    <row r="26" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="12"/>
     </row>
-    <row r="28" spans="1:18" s="10" customFormat="1">
+    <row r="28" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
     </row>
-    <row r="29" spans="1:18" s="10" customFormat="1">
+    <row r="29" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
     </row>
-    <row r="30" spans="1:18" s="10" customFormat="1">
+    <row r="30" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
     </row>
-    <row r="31" spans="1:18" s="10" customFormat="1"/>
-    <row r="32" spans="1:18">
+    <row r="31" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="10"/>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="10"/>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B43" s="10"/>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B44" s="10"/>
       <c r="C44" s="10"/>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B45" s="10"/>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B46" s="10"/>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C71" s="10"/>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C73" s="10"/>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C75" s="10"/>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C77" s="10"/>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C79" s="10"/>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C81" s="10"/>
     </row>
-    <row r="82" spans="2:3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
     </row>
-    <row r="85" spans="2:3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
     </row>
-    <row r="86" spans="2:3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
     </row>
-    <row r="87" spans="2:3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
     </row>
-    <row r="88" spans="2:3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
     </row>
-    <row r="89" spans="2:3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
     </row>
-    <row r="90" spans="2:3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
     </row>
-    <row r="91" spans="2:3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
     </row>
-    <row r="92" spans="2:3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
     </row>
-    <row r="93" spans="2:3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
     </row>
-    <row r="94" spans="2:3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
     </row>
-    <row r="96" spans="2:3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B97" s="10"/>
       <c r="C97" s="10"/>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B98" s="10"/>
       <c r="C98" s="10"/>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B99" s="10"/>
       <c r="C99" s="10"/>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
     </row>
-    <row r="101" spans="1:3" s="10" customFormat="1">
+    <row r="101" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
     </row>
-    <row r="102" spans="1:3" s="10" customFormat="1">
+    <row r="102" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
     </row>
-    <row r="103" spans="1:3" s="10" customFormat="1">
+    <row r="103" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
     </row>
-    <row r="104" spans="1:3" s="10" customFormat="1">
+    <row r="104" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A104" s="8"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
     </row>
-    <row r="113" spans="2:3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
     </row>
-    <row r="114" spans="2:3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
     </row>
-    <row r="115" spans="2:3">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
     </row>
-    <row r="116" spans="2:3">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
     </row>
-    <row r="117" spans="2:3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
     </row>
-    <row r="118" spans="2:3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
     </row>
-    <row r="119" spans="2:3">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
     </row>
-    <row r="120" spans="2:3">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
     </row>
-    <row r="121" spans="2:3">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
     </row>
-    <row r="122" spans="2:3">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
     </row>
-    <row r="123" spans="2:3">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
     </row>
-    <row r="124" spans="2:3">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
     </row>
-    <row r="125" spans="2:3">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
     </row>
-    <row r="126" spans="2:3">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
     </row>
-    <row r="127" spans="2:3">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
     </row>
-    <row r="128" spans="2:3">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B131" s="10"/>
       <c r="C131" s="10"/>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B132" s="10"/>
       <c r="C132" s="10"/>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B133" s="10"/>
       <c r="C133" s="10"/>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B134" s="10"/>
       <c r="C134" s="10"/>
     </row>
-    <row r="135" spans="1:3" s="10" customFormat="1">
+    <row r="135" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
     </row>
-    <row r="136" spans="1:3" s="10" customFormat="1">
+    <row r="136" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
     </row>
-    <row r="137" spans="1:3" s="10" customFormat="1">
+    <row r="137" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
     </row>
-    <row r="138" spans="1:3" s="10" customFormat="1">
+    <row r="138" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
     </row>
-    <row r="139" spans="1:3" s="10" customFormat="1">
+    <row r="139" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
     </row>
-    <row r="140" spans="1:3" s="10" customFormat="1">
+    <row r="140" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
     </row>
-    <row r="141" spans="1:3" s="10" customFormat="1">
+    <row r="141" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
     </row>
-    <row r="142" spans="1:3" s="10" customFormat="1">
+    <row r="142" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
     </row>
-    <row r="143" spans="1:3" s="10" customFormat="1">
+    <row r="143" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
     </row>
-    <row r="144" spans="1:3" s="10" customFormat="1">
+    <row r="144" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
     </row>
-    <row r="145" spans="1:3" s="10" customFormat="1">
+    <row r="145" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8"/>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B146" s="10"/>
       <c r="C146" s="10"/>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B147" s="10"/>
       <c r="C147" s="10"/>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B149" s="10"/>
       <c r="C149" s="10"/>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C150" s="10"/>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C151" s="10"/>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C152" s="10"/>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C153" s="10"/>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C154" s="10"/>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C155" s="10"/>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C156" s="10"/>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C157" s="10"/>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C158" s="10"/>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C159" s="10"/>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C160" s="10"/>
     </row>
-    <row r="161" spans="3:3">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C161" s="10"/>
     </row>
-    <row r="162" spans="3:3">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C162" s="10"/>
     </row>
-    <row r="163" spans="3:3">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C163" s="10"/>
     </row>
-    <row r="164" spans="3:3">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C164" s="10"/>
     </row>
-    <row r="165" spans="3:3">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C165" s="10"/>
     </row>
-    <row r="166" spans="3:3">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C166" s="10"/>
     </row>
-    <row r="167" spans="3:3">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C167" s="10"/>
     </row>
-    <row r="168" spans="3:3">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C168" s="10"/>
     </row>
-    <row r="169" spans="3:3">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C169" s="10"/>
     </row>
-    <row r="170" spans="3:3">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C170" s="10"/>
     </row>
-    <row r="171" spans="3:3">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C171" s="10"/>
     </row>
-    <row r="172" spans="3:3">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C172" s="10"/>
     </row>
-    <row r="173" spans="3:3">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C173" s="10"/>
     </row>
-    <row r="174" spans="3:3">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C174" s="10"/>
     </row>
-    <row r="175" spans="3:3">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C175" s="10"/>
     </row>
-    <row r="176" spans="3:3">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C176" s="10"/>
     </row>
-    <row r="177" spans="3:3">
+    <row r="177" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C177" s="10"/>
     </row>
-    <row r="178" spans="3:3">
+    <row r="178" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C178" s="10"/>
     </row>
-    <row r="179" spans="3:3">
+    <row r="179" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C179" s="10"/>
     </row>
-    <row r="180" spans="3:3">
+    <row r="180" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C180" s="10"/>
     </row>
   </sheetData>
@@ -3668,7 +3670,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
     <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
@@ -3680,7 +3682,7 @@
     <col min="8" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1">
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -3696,7 +3698,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3710,7 +3712,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3724,7 +3726,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3753,12 +3755,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="36" customHeight="1">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>81</v>
       </c>
@@ -3773,7 +3775,7 @@
       </c>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3801,22 +3803,22 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="51.75" customHeight="1">
+    <row r="1" spans="1:3" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="26.25" customHeight="1">
+    <row r="2" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3825,32 +3827,32 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3870,7 +3872,7 @@
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.125" style="8" customWidth="1"/>
     <col min="2" max="2" width="17.375" style="8" customWidth="1"/>
@@ -3883,7 +3885,7 @@
     <col min="10" max="16384" width="8.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="55.35" customHeight="1">
+    <row r="1" spans="1:9" ht="55.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>114</v>
       </c>
@@ -3912,7 +3914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3941,399 +3943,399 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="11"/>
       <c r="I3" s="11"/>
     </row>
-    <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="11"/>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="11"/>
       <c r="I5" s="11"/>
     </row>
-    <row r="6" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="11"/>
       <c r="I6" s="11"/>
     </row>
-    <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="11"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="11"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="11"/>
       <c r="I9" s="11"/>
     </row>
-    <row r="10" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="11"/>
       <c r="I10" s="11"/>
     </row>
-    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="11"/>
       <c r="I11" s="11"/>
     </row>
-    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="11"/>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="20.25" customHeight="1">
+    <row r="14" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="11"/>
       <c r="I18" s="11"/>
     </row>
-    <row r="19" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="11"/>
       <c r="I19" s="11"/>
     </row>
-    <row r="20" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="11"/>
       <c r="I20" s="11"/>
     </row>
-    <row r="21" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="11"/>
       <c r="I21" s="11"/>
     </row>
-    <row r="22" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="11"/>
       <c r="I22" s="11"/>
     </row>
-    <row r="23" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="11"/>
       <c r="I23" s="11"/>
     </row>
-    <row r="24" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="11"/>
       <c r="I24" s="11"/>
     </row>
-    <row r="25" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="11"/>
       <c r="I25" s="11"/>
     </row>
-    <row r="26" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="11"/>
       <c r="I26" s="11"/>
     </row>
-    <row r="27" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="11"/>
       <c r="I27" s="11"/>
     </row>
-    <row r="28" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="11"/>
       <c r="I28" s="11"/>
     </row>
-    <row r="29" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="11"/>
       <c r="I29" s="11"/>
     </row>
-    <row r="30" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="11"/>
       <c r="I30" s="11"/>
     </row>
-    <row r="31" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="11"/>
       <c r="I31" s="11"/>
     </row>
-    <row r="32" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="11"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="33" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="11"/>
       <c r="I33" s="11"/>
     </row>
-    <row r="34" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="34" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="11"/>
       <c r="I34" s="11"/>
     </row>
-    <row r="35" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="35" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="11"/>
       <c r="I35" s="11"/>
     </row>
-    <row r="36" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="36" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="11"/>
       <c r="I36" s="11"/>
     </row>
-    <row r="37" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="37" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="11"/>
       <c r="I37" s="11"/>
     </row>
-    <row r="38" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="38" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="11"/>
       <c r="I38" s="11"/>
     </row>
-    <row r="39" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="11"/>
       <c r="I39" s="11"/>
     </row>
-    <row r="40" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="40" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="11"/>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="41" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="11"/>
       <c r="I41" s="11"/>
     </row>
-    <row r="42" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="42" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="11"/>
       <c r="I42" s="11"/>
     </row>
-    <row r="43" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="43" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="11"/>
       <c r="I43" s="11"/>
     </row>
-    <row r="44" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="44" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="11"/>
       <c r="I44" s="11"/>
     </row>
-    <row r="45" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="45" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="11"/>
       <c r="I45" s="11"/>
     </row>
-    <row r="46" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="46" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="11"/>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="47" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="11"/>
       <c r="I47" s="11"/>
     </row>
-    <row r="48" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="48" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="11"/>
       <c r="I48" s="11"/>
     </row>
-    <row r="49" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="49" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="11"/>
       <c r="I49" s="11"/>
     </row>
-    <row r="50" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="50" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="11"/>
       <c r="I50" s="11"/>
     </row>
-    <row r="51" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="51" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C51" s="11"/>
       <c r="I51" s="11"/>
     </row>
-    <row r="52" spans="3:9" ht="16.5" customHeight="1">
+    <row r="52" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C52" s="11"/>
       <c r="I52" s="11"/>
     </row>
-    <row r="53" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="53" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C53" s="11"/>
       <c r="I53" s="11"/>
     </row>
-    <row r="54" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="54" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="11"/>
       <c r="I54" s="11"/>
     </row>
-    <row r="55" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="55" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C55" s="11"/>
       <c r="I55" s="11"/>
     </row>
-    <row r="56" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="56" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C56" s="11"/>
       <c r="I56" s="11"/>
     </row>
-    <row r="57" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="57" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="11"/>
       <c r="I57" s="11"/>
     </row>
-    <row r="58" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="58" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C58" s="11"/>
       <c r="I58" s="11"/>
     </row>
-    <row r="59" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="59" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C59" s="11"/>
       <c r="I59" s="11"/>
     </row>
-    <row r="60" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="60" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C60" s="11"/>
       <c r="I60" s="11"/>
     </row>
-    <row r="61" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="61" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C61" s="11"/>
       <c r="I61" s="11"/>
     </row>
-    <row r="62" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="62" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C62" s="11"/>
       <c r="I62" s="11"/>
     </row>
-    <row r="63" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="63" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C63" s="11"/>
       <c r="I63" s="11"/>
     </row>
-    <row r="64" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="64" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C64" s="11"/>
       <c r="I64" s="11"/>
     </row>
-    <row r="65" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="65" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C65" s="11"/>
       <c r="I65" s="11"/>
     </row>
-    <row r="66" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="66" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C66" s="11"/>
       <c r="I66" s="11"/>
     </row>
-    <row r="67" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="67" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C67" s="11"/>
       <c r="I67" s="11"/>
     </row>
-    <row r="68" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="68" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C68" s="11"/>
       <c r="I68" s="11"/>
     </row>
-    <row r="69" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="69" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C69" s="11"/>
       <c r="I69" s="11"/>
     </row>
-    <row r="70" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="70" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C70" s="11"/>
       <c r="I70" s="11"/>
     </row>
-    <row r="71" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="71" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C71" s="11"/>
       <c r="I71" s="11"/>
     </row>
-    <row r="72" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="72" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C72" s="11"/>
       <c r="I72" s="11"/>
     </row>
-    <row r="73" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="73" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C73" s="11"/>
       <c r="I73" s="11"/>
     </row>
-    <row r="74" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="74" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C74" s="11"/>
       <c r="I74" s="11"/>
     </row>
-    <row r="75" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="75" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C75" s="11"/>
       <c r="I75" s="11"/>
     </row>
-    <row r="76" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="76" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C76" s="11"/>
       <c r="I76" s="11"/>
     </row>
-    <row r="77" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="77" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C77" s="11"/>
       <c r="I77" s="11"/>
     </row>
-    <row r="78" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="78" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C78" s="11"/>
       <c r="I78" s="11"/>
     </row>
-    <row r="79" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="79" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C79" s="11"/>
       <c r="I79" s="11"/>
     </row>
-    <row r="80" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="80" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C80" s="11"/>
       <c r="I80" s="11"/>
     </row>
-    <row r="81" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="81" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C81" s="11"/>
       <c r="I81" s="11"/>
     </row>
-    <row r="82" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="82" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C82" s="11"/>
       <c r="I82" s="11"/>
     </row>
-    <row r="83" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="83" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C83" s="11"/>
       <c r="I83" s="11"/>
     </row>
-    <row r="84" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="84" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C84" s="11"/>
       <c r="I84" s="11"/>
     </row>
-    <row r="85" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="85" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C85" s="11"/>
       <c r="I85" s="11"/>
     </row>
-    <row r="86" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="86" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C86" s="11"/>
       <c r="I86" s="11"/>
     </row>
-    <row r="87" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="87" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C87" s="11"/>
       <c r="I87" s="11"/>
     </row>
-    <row r="88" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="88" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C88" s="11"/>
       <c r="I88" s="11"/>
     </row>
-    <row r="89" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="89" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C89" s="11"/>
       <c r="I89" s="11"/>
     </row>
-    <row r="90" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="90" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C90" s="11"/>
       <c r="I90" s="11"/>
     </row>
-    <row r="91" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="91" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C91" s="11"/>
       <c r="I91" s="11"/>
     </row>
-    <row r="92" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="92" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C92" s="11"/>
       <c r="I92" s="11"/>
     </row>
-    <row r="93" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="93" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C93" s="11"/>
       <c r="I93" s="11"/>
     </row>
-    <row r="94" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="94" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C94" s="11"/>
       <c r="I94" s="11"/>
     </row>
-    <row r="95" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="95" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C95" s="11"/>
       <c r="I95" s="11"/>
     </row>
-    <row r="96" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="96" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C96" s="11"/>
       <c r="I96" s="11"/>
     </row>
-    <row r="97" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="97" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C97" s="11"/>
       <c r="I97" s="11"/>
     </row>
-    <row r="98" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="98" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C98" s="11"/>
       <c r="I98" s="11"/>
     </row>
-    <row r="99" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="99" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C99" s="11"/>
       <c r="I99" s="11"/>
     </row>
-    <row r="100" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="100" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C100" s="11"/>
       <c r="I100" s="11"/>
     </row>
-    <row r="101" spans="3:9" ht="17.100000000000001" customHeight="1">
+    <row r="101" spans="3:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C101" s="11"/>
       <c r="I101" s="11"/>
     </row>
@@ -4349,12 +4351,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="8" customWidth="1"/>
@@ -4368,7 +4370,7 @@
     <col min="10" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="75.75" customHeight="1">
+    <row r="1" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>114</v>
       </c>
@@ -4395,7 +4397,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1">
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -4403,7 +4405,7 @@
         <v>116</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D2" s="8">
         <v>1</v>
@@ -4421,399 +4423,399 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1">
+    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="25"/>
       <c r="F3" s="9"/>
     </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1">
+    <row r="4" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="25"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1">
+    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="25"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" s="27"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="27"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" s="27"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" s="27"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" s="27"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16"/>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20"/>
       <c r="F20" s="9"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21"/>
       <c r="F21" s="9"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="2:6">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32"/>
       <c r="F32" s="9"/>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33"/>
       <c r="F33" s="9"/>
     </row>
-    <row r="34" spans="2:6">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34"/>
       <c r="F34" s="9"/>
     </row>
-    <row r="35" spans="2:6">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="2:6">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B36"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="2:6">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B37"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38" spans="2:6">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B38"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39" spans="2:6">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B39"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" spans="2:6">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B40"/>
       <c r="F40" s="9"/>
     </row>
-    <row r="41" spans="2:6">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B41"/>
       <c r="F41" s="9"/>
     </row>
-    <row r="42" spans="2:6">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B42"/>
       <c r="F42" s="9"/>
     </row>
-    <row r="43" spans="2:6">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B43"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="2:6">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B44"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="2:6">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B45"/>
       <c r="F45" s="9"/>
     </row>
-    <row r="46" spans="2:6">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B46"/>
       <c r="F46" s="9"/>
     </row>
-    <row r="47" spans="2:6">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B47"/>
       <c r="F47" s="9"/>
     </row>
-    <row r="48" spans="2:6">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B48"/>
       <c r="F48" s="9"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49"/>
       <c r="F49" s="9"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="29"/>
       <c r="F52" s="9"/>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="29"/>
       <c r="F53" s="9"/>
     </row>
-    <row r="54" spans="2:6">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B54" s="29"/>
       <c r="F54" s="9"/>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="29"/>
       <c r="F55" s="9"/>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="29"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="29"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="29"/>
       <c r="F58" s="9"/>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="29"/>
       <c r="F59" s="9"/>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B60" s="29"/>
       <c r="F60" s="9"/>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="29"/>
       <c r="F61" s="9"/>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="29"/>
       <c r="F62" s="9"/>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="29"/>
       <c r="F63" s="9"/>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="29"/>
       <c r="F64" s="9"/>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="29"/>
       <c r="F65" s="9"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="29"/>
       <c r="F66" s="9"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="29"/>
       <c r="F67" s="9"/>
     </row>
-    <row r="68" spans="2:6">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="29"/>
       <c r="F68" s="9"/>
     </row>
-    <row r="69" spans="2:6">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="29"/>
       <c r="F69" s="9"/>
     </row>
-    <row r="70" spans="2:6">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="29"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="2:6">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="29"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="29"/>
       <c r="F72" s="9"/>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="29"/>
       <c r="F73" s="9"/>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="29"/>
       <c r="F74" s="9"/>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="29"/>
       <c r="F75" s="9"/>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="29"/>
       <c r="F76" s="9"/>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="29"/>
       <c r="F77" s="9"/>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="29"/>
       <c r="F78" s="9"/>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="25"/>
       <c r="F79" s="9"/>
     </row>
-    <row r="80" spans="2:6">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="25"/>
       <c r="F80" s="9"/>
     </row>
-    <row r="81" spans="2:6">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" s="25"/>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" spans="2:6">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="25"/>
       <c r="F82" s="9"/>
     </row>
-    <row r="83" spans="2:6">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" s="27"/>
       <c r="F83" s="9"/>
     </row>
-    <row r="84" spans="2:6">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="27"/>
       <c r="F84" s="9"/>
     </row>
-    <row r="85" spans="2:6">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="27"/>
       <c r="F85" s="9"/>
     </row>
-    <row r="86" spans="2:6">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" s="27"/>
       <c r="F86" s="9"/>
     </row>
-    <row r="87" spans="2:6">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" s="27"/>
       <c r="F87" s="9"/>
     </row>
-    <row r="88" spans="2:6">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="27"/>
       <c r="F88" s="9"/>
     </row>
-    <row r="89" spans="2:6">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89"/>
       <c r="F89" s="9"/>
     </row>
-    <row r="90" spans="2:6">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90"/>
       <c r="F90" s="9"/>
     </row>
-    <row r="91" spans="2:6">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91"/>
       <c r="F91" s="9"/>
     </row>
-    <row r="92" spans="2:6">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92"/>
       <c r="F92" s="9"/>
     </row>
-    <row r="93" spans="2:6">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93"/>
       <c r="F93" s="9"/>
     </row>
-    <row r="94" spans="2:6">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="25"/>
       <c r="F94" s="9"/>
     </row>
-    <row r="95" spans="2:6">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" s="25"/>
       <c r="F95" s="9"/>
     </row>
-    <row r="96" spans="2:6">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" s="25"/>
       <c r="F96" s="9"/>
     </row>
-    <row r="97" spans="2:6">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B97" s="27"/>
       <c r="F97" s="9"/>
     </row>
-    <row r="98" spans="2:6">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B98" s="27"/>
       <c r="F98" s="9"/>
     </row>
-    <row r="99" spans="2:6">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B99" s="27"/>
       <c r="F99" s="9"/>
     </row>
-    <row r="100" spans="2:6">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B100" s="27"/>
       <c r="F100" s="9"/>
     </row>
-    <row r="101" spans="2:6">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B101" s="27"/>
       <c r="F101" s="9"/>
     </row>
@@ -4831,10 +4833,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="8" customWidth="1"/>
     <col min="2" max="2" width="19.125" style="8" customWidth="1"/>
@@ -4848,7 +4850,7 @@
     <col min="12" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="84" customHeight="1">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4880,7 +4882,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="20" customFormat="1">
+    <row r="2" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -4921,7 +4923,7 @@
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
     </row>
-    <row r="3" spans="1:20" s="18" customFormat="1">
+    <row r="3" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -4942,7 +4944,7 @@
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20" s="18" customFormat="1">
+    <row r="4" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -4963,7 +4965,7 @@
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:20" s="18" customFormat="1">
+    <row r="5" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -4984,7 +4986,7 @@
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" s="19" customFormat="1">
+    <row r="6" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -5005,7 +5007,7 @@
       <c r="S6" s="10"/>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" s="19" customFormat="1">
+    <row r="7" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -5026,7 +5028,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" s="19" customFormat="1">
+    <row r="8" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -5047,7 +5049,7 @@
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" s="19" customFormat="1">
+    <row r="9" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -5068,7 +5070,7 @@
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20" s="19" customFormat="1">
+    <row r="10" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -5089,7 +5091,7 @@
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" s="19" customFormat="1">
+    <row r="11" spans="1:20" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -5110,7 +5112,7 @@
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" s="18" customFormat="1">
+    <row r="12" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -5131,7 +5133,7 @@
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" s="18" customFormat="1">
+    <row r="13" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -5152,7 +5154,7 @@
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" s="18" customFormat="1">
+    <row r="14" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -5173,7 +5175,7 @@
       <c r="S14" s="10"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" s="18" customFormat="1">
+    <row r="15" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -5194,7 +5196,7 @@
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="18" customFormat="1">
+    <row r="16" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -5215,7 +5217,7 @@
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" s="18" customFormat="1">
+    <row r="17" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -5236,7 +5238,7 @@
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" s="18" customFormat="1">
+    <row r="18" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -5257,7 +5259,7 @@
       <c r="S18" s="10"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" s="18" customFormat="1">
+    <row r="19" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -5278,7 +5280,7 @@
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" s="18" customFormat="1">
+    <row r="20" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -5299,7 +5301,7 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" s="18" customFormat="1">
+    <row r="21" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -5320,488 +5322,488 @@
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" s="10" customFormat="1"/>
-    <row r="23" spans="1:20" s="10" customFormat="1">
+    <row r="22" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="12"/>
     </row>
-    <row r="24" spans="1:20" s="10" customFormat="1">
+    <row r="24" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="12"/>
     </row>
-    <row r="25" spans="1:20" s="10" customFormat="1">
+    <row r="25" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="12"/>
     </row>
-    <row r="26" spans="1:20" s="10" customFormat="1">
+    <row r="26" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="12"/>
     </row>
-    <row r="27" spans="1:20" s="10" customFormat="1"/>
-    <row r="28" spans="1:20">
+    <row r="27" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B29" s="10"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B30" s="10"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B32" s="10"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B33" s="10"/>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B35" s="10"/>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B36" s="10"/>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B38" s="10"/>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B41" s="10"/>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B42" s="10"/>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B66" s="10"/>
       <c r="C66" s="10"/>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C67" s="10"/>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C69" s="10"/>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C71" s="10"/>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C73" s="10"/>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="10"/>
       <c r="C74" s="10"/>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C75" s="10"/>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C77" s="10"/>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="10"/>
       <c r="C80" s="10"/>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B81" s="10"/>
       <c r="C81" s="10"/>
     </row>
-    <row r="82" spans="2:3">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
     </row>
-    <row r="85" spans="2:3">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
     </row>
-    <row r="86" spans="2:3">
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B86" s="10"/>
       <c r="C86" s="10"/>
     </row>
-    <row r="87" spans="2:3">
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
     </row>
-    <row r="88" spans="2:3">
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
     </row>
-    <row r="89" spans="2:3">
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B89" s="10"/>
       <c r="C89" s="10"/>
     </row>
-    <row r="90" spans="2:3">
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B90" s="10"/>
       <c r="C90" s="10"/>
     </row>
-    <row r="91" spans="2:3">
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
     </row>
-    <row r="92" spans="2:3">
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
     </row>
-    <row r="93" spans="2:3">
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
     </row>
-    <row r="94" spans="2:3">
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
     </row>
-    <row r="96" spans="2:3">
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B96" s="10"/>
       <c r="C96" s="10"/>
     </row>
-    <row r="97" spans="1:3" s="10" customFormat="1">
+    <row r="97" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
     </row>
-    <row r="98" spans="1:3" s="10" customFormat="1">
+    <row r="98" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
     </row>
-    <row r="99" spans="1:3" s="10" customFormat="1">
+    <row r="99" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
     </row>
-    <row r="100" spans="1:3" s="10" customFormat="1">
+    <row r="100" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B104" s="10"/>
       <c r="C104" s="10"/>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B111" s="10"/>
       <c r="C111" s="10"/>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
     </row>
-    <row r="113" spans="2:3">
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B113" s="10"/>
       <c r="C113" s="10"/>
     </row>
-    <row r="114" spans="2:3">
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B114" s="10"/>
       <c r="C114" s="10"/>
     </row>
-    <row r="115" spans="2:3">
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
     </row>
-    <row r="116" spans="2:3">
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
     </row>
-    <row r="117" spans="2:3">
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
     </row>
-    <row r="118" spans="2:3">
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
     </row>
-    <row r="119" spans="2:3">
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
     </row>
-    <row r="120" spans="2:3">
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B120" s="10"/>
       <c r="C120" s="10"/>
     </row>
-    <row r="121" spans="2:3">
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B121" s="10"/>
       <c r="C121" s="10"/>
     </row>
-    <row r="122" spans="2:3">
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B122" s="10"/>
       <c r="C122" s="10"/>
     </row>
-    <row r="123" spans="2:3">
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B123" s="10"/>
       <c r="C123" s="10"/>
     </row>
-    <row r="124" spans="2:3">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B124" s="10"/>
       <c r="C124" s="10"/>
     </row>
-    <row r="125" spans="2:3">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B125" s="10"/>
       <c r="C125" s="10"/>
     </row>
-    <row r="126" spans="2:3">
+    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
     </row>
-    <row r="127" spans="2:3">
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B127" s="10"/>
       <c r="C127" s="10"/>
     </row>
-    <row r="128" spans="2:3">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B128" s="10"/>
       <c r="C128" s="10"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B129" s="10"/>
       <c r="C129" s="10"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B130" s="10"/>
       <c r="C130" s="10"/>
     </row>
-    <row r="131" spans="1:3" s="10" customFormat="1">
+    <row r="131" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
     </row>
-    <row r="132" spans="1:3" s="10" customFormat="1">
+    <row r="132" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
     </row>
-    <row r="133" spans="1:3" s="10" customFormat="1">
+    <row r="133" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
     </row>
-    <row r="134" spans="1:3" s="10" customFormat="1">
+    <row r="134" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
     </row>
-    <row r="135" spans="1:3" s="10" customFormat="1">
+    <row r="135" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
     </row>
-    <row r="136" spans="1:3" s="10" customFormat="1">
+    <row r="136" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
     </row>
-    <row r="137" spans="1:3" s="10" customFormat="1">
+    <row r="137" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A137" s="8"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
     </row>
-    <row r="138" spans="1:3" s="10" customFormat="1">
+    <row r="138" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A138" s="8"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
     </row>
-    <row r="139" spans="1:3" s="10" customFormat="1">
+    <row r="139" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
     </row>
-    <row r="140" spans="1:3" s="10" customFormat="1">
+    <row r="140" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
     </row>
-    <row r="141" spans="1:3" s="10" customFormat="1">
+    <row r="141" spans="1:3" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8"/>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B142" s="10"/>
       <c r="C142" s="10"/>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B144" s="10"/>
       <c r="C144" s="10"/>
     </row>
-    <row r="145" spans="2:3">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
     </row>
-    <row r="146" spans="2:3">
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C146" s="10"/>
     </row>
-    <row r="147" spans="2:3">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C147" s="10"/>
     </row>
-    <row r="148" spans="2:3">
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C148" s="10"/>
     </row>
-    <row r="149" spans="2:3">
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C149" s="10"/>
     </row>
-    <row r="150" spans="2:3">
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C150" s="10"/>
     </row>
-    <row r="151" spans="2:3">
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C151" s="10"/>
     </row>
-    <row r="152" spans="2:3">
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C152" s="10"/>
     </row>
-    <row r="153" spans="2:3">
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C153" s="10"/>
     </row>
-    <row r="154" spans="2:3">
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C154" s="10"/>
     </row>
-    <row r="155" spans="2:3">
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C155" s="10"/>
     </row>
-    <row r="156" spans="2:3">
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C156" s="10"/>
     </row>
-    <row r="157" spans="2:3">
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C157" s="10"/>
     </row>
-    <row r="158" spans="2:3">
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C158" s="10"/>
     </row>
-    <row r="159" spans="2:3">
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C159" s="10"/>
     </row>
-    <row r="160" spans="2:3">
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C160" s="10"/>
     </row>
-    <row r="161" spans="3:3">
+    <row r="161" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C161" s="10"/>
     </row>
-    <row r="162" spans="3:3">
+    <row r="162" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C162" s="10"/>
     </row>
-    <row r="163" spans="3:3">
+    <row r="163" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C163" s="10"/>
     </row>
-    <row r="164" spans="3:3">
+    <row r="164" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C164" s="10"/>
     </row>
-    <row r="165" spans="3:3">
+    <row r="165" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C165" s="10"/>
     </row>
-    <row r="166" spans="3:3">
+    <row r="166" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C166" s="10"/>
     </row>
-    <row r="167" spans="3:3">
+    <row r="167" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C167" s="10"/>
     </row>
-    <row r="168" spans="3:3">
+    <row r="168" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C168" s="10"/>
     </row>
-    <row r="169" spans="3:3">
+    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C169" s="10"/>
     </row>
-    <row r="170" spans="3:3">
+    <row r="170" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C170" s="10"/>
     </row>
-    <row r="171" spans="3:3">
+    <row r="171" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C171" s="10"/>
     </row>
-    <row r="172" spans="3:3">
+    <row r="172" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C172" s="10"/>
     </row>
-    <row r="173" spans="3:3">
+    <row r="173" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C173" s="10"/>
     </row>
-    <row r="174" spans="3:3">
+    <row r="174" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C174" s="10"/>
     </row>
-    <row r="175" spans="3:3">
+    <row r="175" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C175" s="10"/>
     </row>
-    <row r="176" spans="3:3">
+    <row r="176" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C176" s="10"/>
     </row>
   </sheetData>
@@ -5816,10 +5818,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" style="1"/>
     <col min="2" max="2" width="31.75" style="1" customWidth="1"/>
@@ -5831,7 +5833,7 @@
     <col min="8" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="36" customHeight="1">
+    <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5851,7 +5853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5871,7 +5873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5891,7 +5893,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5911,7 +5913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5949,7 +5951,7 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="30.375" style="8" customWidth="1"/>
@@ -5962,7 +5964,7 @@
     <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="38.450000000000003" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5982,7 +5984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -6002,7 +6004,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -6019,7 +6021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -6036,7 +6038,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -6053,7 +6055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -6070,7 +6072,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -6087,7 +6089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -6104,7 +6106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -6121,7 +6123,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -6138,7 +6140,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -6155,7 +6157,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -6172,7 +6174,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -6189,7 +6191,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -6206,150 +6208,150 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="209" spans="2:5">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B209" s="15"/>
       <c r="C209" s="16"/>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
     </row>
-    <row r="210" spans="2:5">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B210" s="15"/>
       <c r="C210" s="16"/>
       <c r="D210" s="15"/>
       <c r="E210" s="15"/>
     </row>
-    <row r="211" spans="2:5">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B211" s="15"/>
       <c r="C211" s="16"/>
       <c r="D211" s="15"/>
       <c r="E211" s="15"/>
     </row>
-    <row r="212" spans="2:5">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B212" s="15"/>
       <c r="C212" s="16"/>
       <c r="D212" s="15"/>
       <c r="E212" s="15"/>
     </row>
-    <row r="213" spans="2:5">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B213" s="15"/>
       <c r="C213" s="16"/>
       <c r="D213" s="15"/>
       <c r="E213" s="15"/>
     </row>
-    <row r="214" spans="2:5">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B214" s="15"/>
       <c r="C214" s="16"/>
       <c r="D214" s="15"/>
       <c r="E214" s="15"/>
     </row>
-    <row r="215" spans="2:5">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B215" s="15"/>
       <c r="C215" s="16"/>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
     </row>
-    <row r="216" spans="2:5">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B216" s="15"/>
       <c r="C216" s="16"/>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
     </row>
-    <row r="217" spans="2:5">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B217" s="15"/>
       <c r="C217" s="16"/>
       <c r="D217" s="15"/>
       <c r="E217" s="15"/>
     </row>
-    <row r="218" spans="2:5">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B218" s="15"/>
       <c r="C218" s="16"/>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
     </row>
-    <row r="219" spans="2:5">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B219" s="15"/>
       <c r="C219" s="16"/>
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
     </row>
-    <row r="220" spans="2:5">
+    <row r="220" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B220" s="15"/>
       <c r="C220" s="16"/>
       <c r="D220" s="15"/>
       <c r="E220" s="15"/>
     </row>
-    <row r="221" spans="2:5">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C221" s="11"/>
     </row>
-    <row r="222" spans="2:5">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C222" s="11"/>
     </row>
-    <row r="223" spans="2:5">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C223" s="11"/>
     </row>
-    <row r="224" spans="2:5">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C224" s="11"/>
       <c r="D224" s="17"/>
     </row>
-    <row r="225" spans="3:4">
+    <row r="225" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C225" s="11"/>
       <c r="D225" s="17"/>
     </row>
-    <row r="226" spans="3:4">
+    <row r="226" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C226" s="11"/>
     </row>
-    <row r="227" spans="3:4">
+    <row r="227" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C227" s="11"/>
     </row>
-    <row r="228" spans="3:4">
+    <row r="228" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C228" s="11"/>
     </row>
-    <row r="229" spans="3:4">
+    <row r="229" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
     </row>
-    <row r="230" spans="3:4">
+    <row r="230" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
     </row>
-    <row r="231" spans="3:4">
+    <row r="231" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
     </row>
-    <row r="232" spans="3:4">
+    <row r="232" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
     </row>
-    <row r="233" spans="3:4">
+    <row r="233" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C233" s="11"/>
       <c r="D233" s="11"/>
     </row>
-    <row r="234" spans="3:4">
+    <row r="234" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C234" s="11"/>
     </row>
-    <row r="235" spans="3:4">
+    <row r="235" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C235" s="11"/>
     </row>
-    <row r="236" spans="3:4">
+    <row r="236" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C236" s="11"/>
     </row>
-    <row r="237" spans="3:4">
+    <row r="237" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C237" s="11"/>
       <c r="D237" s="11"/>
     </row>
-    <row r="238" spans="3:4">
+    <row r="238" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C238" s="11"/>
       <c r="D238" s="11"/>
     </row>
-    <row r="239" spans="3:4">
+    <row r="239" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C239" s="11"/>
       <c r="D239" s="11"/>
     </row>
-    <row r="240" spans="3:4">
+    <row r="240" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C240" s="11"/>
       <c r="D240" s="11"/>
     </row>
-    <row r="241" spans="3:4">
+    <row r="241" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C241" s="11"/>
       <c r="D241" s="11"/>
     </row>
@@ -6368,14 +6370,14 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="4" width="19.125" customWidth="1"/>
     <col min="5" max="5" width="21.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="105" customHeight="1">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -6392,7 +6394,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6407,7 +6409,7 @@
       </c>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6422,7 +6424,7 @@
       </c>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6436,7 +6438,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6451,7 +6453,7 @@
       </c>
       <c r="E5" s="24"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6465,7 +6467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6479,7 +6481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6493,7 +6495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -6507,16 +6509,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
     </row>
@@ -6535,7 +6537,7 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
@@ -6545,7 +6547,7 @@
     <col min="7" max="7" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="105" customHeight="1">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -6571,7 +6573,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6597,7 +6599,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6623,7 +6625,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
